--- a/Data For Create Data.xlsx
+++ b/Data For Create Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHATHURI\Documents\SOAPUI\Automation Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDBCF43-9F3A-4A0F-AFFA-D1B447BFC8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE7148-EB45-48D4-9A87-AAC2E402F034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="1830" windowWidth="21600" windowHeight="11505" xr2:uid="{A6398FC2-1068-4C75-8BDE-66B070E7F8F8}"/>
   </bookViews>
@@ -411,10 +411,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
